--- a/compro data duck.xlsx
+++ b/compro data duck.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code exam\Jode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33AA97A-8ADC-407A-A05C-FD85C0CFFF32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FAD6BE-2AD7-4840-AEAE-236DF570FD40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>District</t>
-  </si>
-  <si>
-    <t>NO.</t>
   </si>
   <si>
     <t>1. Mueang Phichit</t>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Quantity(Duck)</t>
   </si>
 </sst>
 </file>
@@ -358,13 +358,13 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="G4" sqref="G1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="24" width="7.6640625" customWidth="1"/>
   </cols>
@@ -374,12 +374,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>63470</v>
@@ -387,7 +387,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>66703</v>
@@ -395,7 +395,7 @@
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>51854</v>
@@ -403,7 +403,7 @@
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>46831</v>
@@ -411,7 +411,7 @@
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>53392</v>
@@ -419,7 +419,7 @@
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>49947</v>
@@ -427,7 +427,7 @@
     </row>
     <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6">
         <v>160165</v>
@@ -435,7 +435,7 @@
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>55770</v>
@@ -443,7 +443,7 @@
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>61782</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>38553</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>58934</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5">
         <v>97424</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4">
         <v>804825</v>

--- a/compro data duck.xlsx
+++ b/compro data duck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code exam\Jode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FAD6BE-2AD7-4840-AEAE-236DF570FD40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98D6A1B-10D0-4B32-944F-FF33ADA2B09A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Quantity(Duck)</t>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G1:I4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
